--- a/resultados/pretratamiento-tablas-control/pretrat-italia-elo-dificil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-italia-elo-dificil-regular.xlsx
@@ -121,7 +121,7 @@
     <t>43.957 (115)</t>
   </si>
   <si>
-    <t>10.461 (115)</t>
+    <t>10.443 (115)</t>
   </si>
   <si>
     <t>10.043 (115)</t>
@@ -175,7 +175,7 @@
     <t>37.605 (86)</t>
   </si>
   <si>
-    <t>11.337 (86)</t>
+    <t>11.349 (86)</t>
   </si>
   <si>
     <t>11.302 (86)</t>
@@ -274,7 +274,7 @@
     <t>43.626 (91)</t>
   </si>
   <si>
-    <t>10.341 (91)</t>
+    <t>10.319 (91)</t>
   </si>
   <si>
     <t>10.143 (91)</t>
@@ -328,7 +328,7 @@
     <t>39.725 (102)</t>
   </si>
   <si>
-    <t>11.275 (102)</t>
+    <t>11.284 (102)</t>
   </si>
   <si>
     <t>11.029 (102)</t>
@@ -487,7 +487,7 @@
     <t>39.568 (118)</t>
   </si>
   <si>
-    <t>10.89 (118)</t>
+    <t>10.881 (118)</t>
   </si>
   <si>
     <t>10.669 (118)</t>
@@ -649,7 +649,7 @@
     <t>40.852 (128)</t>
   </si>
   <si>
-    <t>10.75 (128)</t>
+    <t>10.742 (128)</t>
   </si>
   <si>
     <t>10.555 (128)</t>
@@ -805,7 +805,7 @@
     <t>44.154 (78)</t>
   </si>
   <si>
-    <t>11.128 (78)</t>
+    <t>11.103 (78)</t>
   </si>
   <si>
     <t>10.487 (78)</t>
@@ -859,7 +859,7 @@
     <t>38.742 (89)</t>
   </si>
   <si>
-    <t>10.955 (89)</t>
+    <t>10.966 (89)</t>
   </si>
   <si>
     <t>10.674 (89)</t>
@@ -967,7 +967,7 @@
     <t>41.914 (58)</t>
   </si>
   <si>
-    <t>10.759 (58)</t>
+    <t>10.724 (58)</t>
   </si>
   <si>
     <t>10.672 (58)</t>
@@ -1021,7 +1021,7 @@
     <t>41.896 (96)</t>
   </si>
   <si>
-    <t>10.969 (96)</t>
+    <t>10.979 (96)</t>
   </si>
   <si>
     <t>10.396 (96)</t>
@@ -1234,7 +1234,7 @@
     <t>42.394 (104)</t>
   </si>
   <si>
-    <t>10.846 (104)</t>
+    <t>10.837 (104)</t>
   </si>
   <si>
     <t>10.644 (104)</t>
@@ -1447,7 +1447,7 @@
     <t>41.887 (97)</t>
   </si>
   <si>
-    <t>10.969 (97)</t>
+    <t>10.959 (97)</t>
   </si>
   <si>
     <t>10.577 (97)</t>
@@ -1597,7 +1597,7 @@
     <t>43.021 (48)</t>
   </si>
   <si>
-    <t>11.396 (48)</t>
+    <t>11.354 (48)</t>
   </si>
   <si>
     <t>11.375 (48)</t>
@@ -1651,7 +1651,7 @@
     <t>40.278 (79)</t>
   </si>
   <si>
-    <t>11.165 (79)</t>
+    <t>11.177 (79)</t>
   </si>
   <si>
     <t>10.304 (79)</t>
@@ -1756,7 +1756,7 @@
     <t>43.194 (36)</t>
   </si>
   <si>
-    <t>10.778 (36)</t>
+    <t>10.722 (36)</t>
   </si>
   <si>
     <t>10.833 (36)</t>
@@ -1810,7 +1810,7 @@
     <t>40.319 (72)</t>
   </si>
   <si>
-    <t>11.167 (72)</t>
+    <t>11.181 (72)</t>
   </si>
   <si>
     <t>10.472 (72)</t>
@@ -2020,7 +2020,7 @@
     <t>39.472 (72)</t>
   </si>
   <si>
-    <t>10.889 (72)</t>
+    <t>10.875 (72)</t>
   </si>
   <si>
     <t>10.75 (72)</t>
@@ -2230,7 +2230,7 @@
     <t>41.562 (64)</t>
   </si>
   <si>
-    <t>11.688 (64)</t>
+    <t>11.672 (64)</t>
   </si>
   <si>
     <t>11.172 (64)</t>
@@ -2491,7 +2491,7 @@
     <t>39.891 (64)</t>
   </si>
   <si>
-    <t>11.219 (64)</t>
+    <t>11.234 (64)</t>
   </si>
   <si>
     <t>10.0 (64)</t>
@@ -2695,7 +2695,7 @@
     <t>39.263 (57)</t>
   </si>
   <si>
-    <t>10.702 (57)</t>
+    <t>10.719 (57)</t>
   </si>
   <si>
     <t>10.368 (57)</t>
@@ -2905,7 +2905,7 @@
     <t>35.372 (43)</t>
   </si>
   <si>
-    <t>10.884 (43)</t>
+    <t>10.907 (43)</t>
   </si>
   <si>
     <t>11.07 (43)</t>
@@ -3145,7 +3145,7 @@
     <t>38.588 (34)</t>
   </si>
   <si>
-    <t>11.412 (34)</t>
+    <t>11.441 (34)</t>
   </si>
   <si>
     <t>10.765 (34)</t>
@@ -3764,10 +3764,10 @@
         <v>0.464</v>
       </c>
       <c r="H2">
-        <v>0.128</v>
+        <v>0.132</v>
       </c>
       <c r="I2">
-        <v>0.899</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3793,10 +3793,10 @@
         <v>-1.988</v>
       </c>
       <c r="H3">
-        <v>-0.549</v>
+        <v>-0.42</v>
       </c>
       <c r="I3">
-        <v>0.584</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3822,10 +3822,10 @@
         <v>2.964</v>
       </c>
       <c r="H4">
-        <v>0.705</v>
+        <v>0.717</v>
       </c>
       <c r="I4">
-        <v>0.482</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3851,10 +3851,10 @@
         <v>0.73</v>
       </c>
       <c r="H5">
-        <v>0.146</v>
+        <v>0.167</v>
       </c>
       <c r="I5">
-        <v>0.884</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3880,10 +3880,10 @@
         <v>-0.179</v>
       </c>
       <c r="H6">
-        <v>-0.035</v>
+        <v>-0.028</v>
       </c>
       <c r="I6">
-        <v>0.972</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3909,10 +3909,10 @@
         <v>-13.387</v>
       </c>
       <c r="H7">
-        <v>-2.596</v>
+        <v>-2.631</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3935,13 +3935,13 @@
         <v>0.035</v>
       </c>
       <c r="G8">
-        <v>0.408</v>
+        <v>0.474</v>
       </c>
       <c r="H8">
-        <v>0.255</v>
+        <v>0.341</v>
       </c>
       <c r="I8">
-        <v>0.799</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3967,10 +3967,10 @@
         <v>2.315</v>
       </c>
       <c r="H9">
-        <v>1.402</v>
+        <v>1.216</v>
       </c>
       <c r="I9">
-        <v>0.163</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3996,10 +3996,10 @@
         <v>-1.564</v>
       </c>
       <c r="H10">
-        <v>-0.765</v>
+        <v>-0.827</v>
       </c>
       <c r="I10">
-        <v>0.445</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4025,10 +4025,10 @@
         <v>-0.342</v>
       </c>
       <c r="H11">
-        <v>-0.165</v>
+        <v>-0.167</v>
       </c>
       <c r="I11">
-        <v>0.87</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4054,10 +4054,10 @@
         <v>-1.011</v>
       </c>
       <c r="H12">
-        <v>-0.49</v>
+        <v>-0.349</v>
       </c>
       <c r="I12">
-        <v>0.625</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4083,10 +4083,10 @@
         <v>5.59</v>
       </c>
       <c r="H13">
-        <v>2.772</v>
+        <v>2.935</v>
       </c>
       <c r="I13">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4112,10 +4112,10 @@
         <v>-0.041</v>
       </c>
       <c r="H14">
-        <v>-1.275</v>
+        <v>-1.495</v>
       </c>
       <c r="I14">
-        <v>0.204</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4141,10 +4141,10 @@
         <v>-0.03</v>
       </c>
       <c r="H15">
-        <v>-0.927</v>
+        <v>-0.963</v>
       </c>
       <c r="I15">
-        <v>0.355</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4170,10 +4170,10 @@
         <v>0.01</v>
       </c>
       <c r="H16">
-        <v>0.325</v>
+        <v>0.343</v>
       </c>
       <c r="I16">
-        <v>0.745</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4199,10 +4199,10 @@
         <v>0.032</v>
       </c>
       <c r="H17">
-        <v>0.956</v>
+        <v>1.058</v>
       </c>
       <c r="I17">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4228,10 +4228,10 @@
         <v>-0.032</v>
       </c>
       <c r="H18">
-        <v>-0.929</v>
+        <v>-1.3</v>
       </c>
       <c r="I18">
-        <v>0.354</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4257,10 +4257,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="H19">
-        <v>-2.018</v>
+        <v>-2.843</v>
       </c>
       <c r="I19">
-        <v>0.045</v>
+        <v>0.004</v>
       </c>
     </row>
   </sheetData>
@@ -4346,10 +4346,10 @@
         <v>-6.227</v>
       </c>
       <c r="I2">
-        <v>-1.351</v>
+        <v>-1.384</v>
       </c>
       <c r="J2">
-        <v>0.18</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4378,10 +4378,10 @@
         <v>-2.457</v>
       </c>
       <c r="I3">
-        <v>-0.622</v>
+        <v>-0.707</v>
       </c>
       <c r="J3">
-        <v>0.535</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4410,10 +4410,10 @@
         <v>1.621</v>
       </c>
       <c r="I4">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="J4">
-        <v>0.757</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4442,10 +4442,10 @@
         <v>6.121</v>
       </c>
       <c r="I5">
-        <v>0.99</v>
+        <v>0.864</v>
       </c>
       <c r="J5">
-        <v>0.325</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4474,10 +4474,10 @@
         <v>6.544</v>
       </c>
       <c r="I6">
-        <v>1.068</v>
+        <v>1.011</v>
       </c>
       <c r="J6">
-        <v>0.288</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4506,10 +4506,10 @@
         <v>6.56</v>
       </c>
       <c r="I7">
-        <v>0.993</v>
+        <v>0.959</v>
       </c>
       <c r="J7">
-        <v>0.323</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4535,13 +4535,13 @@
         <v>0.037</v>
       </c>
       <c r="H8">
-        <v>2.178</v>
+        <v>2.265</v>
       </c>
       <c r="I8">
-        <v>1.062</v>
+        <v>1.127</v>
       </c>
       <c r="J8">
-        <v>0.291</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4570,10 +4570,10 @@
         <v>1.398</v>
       </c>
       <c r="I9">
-        <v>0.743</v>
+        <v>0.832</v>
       </c>
       <c r="J9">
-        <v>0.459</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4602,10 +4602,10 @@
         <v>-1.09</v>
       </c>
       <c r="I10">
-        <v>-0.424</v>
+        <v>-0.479</v>
       </c>
       <c r="J10">
-        <v>0.673</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4634,10 +4634,10 @@
         <v>-2.142</v>
       </c>
       <c r="I11">
-        <v>-0.801</v>
+        <v>-0.672</v>
       </c>
       <c r="J11">
-        <v>0.425</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4666,10 +4666,10 @@
         <v>-2.987</v>
       </c>
       <c r="I12">
-        <v>-1.193</v>
+        <v>-1.111</v>
       </c>
       <c r="J12">
-        <v>0.236</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4698,10 +4698,10 @@
         <v>-1.917</v>
       </c>
       <c r="I13">
-        <v>-0.711</v>
+        <v>-0.672</v>
       </c>
       <c r="J13">
-        <v>0.479</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4730,10 +4730,10 @@
         <v>-0.054</v>
       </c>
       <c r="I14">
-        <v>-1.252</v>
+        <v>-1.513</v>
       </c>
       <c r="J14">
-        <v>0.214</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4762,10 +4762,10 @@
         <v>-0.059</v>
       </c>
       <c r="I15">
-        <v>-1.579</v>
+        <v>-1.441</v>
       </c>
       <c r="J15">
-        <v>0.117</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4794,10 +4794,10 @@
         <v>-0.068</v>
       </c>
       <c r="I16">
-        <v>-1.688</v>
+        <v>-1.806</v>
       </c>
       <c r="J16">
-        <v>0.094</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4826,10 +4826,10 @@
         <v>0.035</v>
       </c>
       <c r="I17">
-        <v>0.846</v>
+        <v>0.726</v>
       </c>
       <c r="J17">
-        <v>0.399</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4858,10 +4858,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="I18">
-        <v>-1.613</v>
+        <v>-1.927</v>
       </c>
       <c r="J18">
-        <v>0.11</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4890,10 +4890,10 @@
         <v>-0.049</v>
       </c>
       <c r="I19">
-        <v>-1.111</v>
+        <v>-1.101</v>
       </c>
       <c r="J19">
-        <v>0.269</v>
+        <v>0.271</v>
       </c>
     </row>
   </sheetData>
@@ -4979,10 +4979,10 @@
         <v>-4.257</v>
       </c>
       <c r="I2">
-        <v>-0.74</v>
+        <v>-0.725</v>
       </c>
       <c r="J2">
-        <v>0.461</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5011,10 +5011,10 @@
         <v>3.647</v>
       </c>
       <c r="I3">
-        <v>0.745</v>
+        <v>0.715</v>
       </c>
       <c r="J3">
-        <v>0.458</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5043,10 +5043,10 @@
         <v>9.443</v>
       </c>
       <c r="I4">
-        <v>1.469</v>
+        <v>1.787</v>
       </c>
       <c r="J4">
-        <v>0.145</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5075,10 +5075,10 @@
         <v>6.245</v>
       </c>
       <c r="I5">
-        <v>0.8129999999999999</v>
+        <v>0.787</v>
       </c>
       <c r="J5">
-        <v>0.418</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5107,10 +5107,10 @@
         <v>0.31</v>
       </c>
       <c r="I6">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="J6">
-        <v>0.968</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5139,10 +5139,10 @@
         <v>5.353</v>
       </c>
       <c r="I7">
-        <v>0.651</v>
+        <v>0.607</v>
       </c>
       <c r="J7">
-        <v>0.516</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5168,13 +5168,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>1.044</v>
+        <v>1.021</v>
       </c>
       <c r="I8">
-        <v>0.409</v>
+        <v>0.378</v>
       </c>
       <c r="J8">
-        <v>0.6840000000000001</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5203,10 +5203,10 @@
         <v>-0.768</v>
       </c>
       <c r="I9">
-        <v>-0.328</v>
+        <v>-0.334</v>
       </c>
       <c r="J9">
-        <v>0.743</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5235,10 +5235,10 @@
         <v>-5.71</v>
       </c>
       <c r="I10">
-        <v>-1.815</v>
+        <v>-2.275</v>
       </c>
       <c r="J10">
-        <v>0.07199999999999999</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5267,10 +5267,10 @@
         <v>-2.651</v>
       </c>
       <c r="I11">
-        <v>-0.799</v>
+        <v>-0.735</v>
       </c>
       <c r="J11">
-        <v>0.426</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5299,10 +5299,10 @@
         <v>-0.547</v>
       </c>
       <c r="I12">
-        <v>-0.175</v>
+        <v>-0.162</v>
       </c>
       <c r="J12">
-        <v>0.862</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5331,10 +5331,10 @@
         <v>-1.378</v>
       </c>
       <c r="I13">
-        <v>-0.411</v>
+        <v>-0.435</v>
       </c>
       <c r="J13">
-        <v>0.6820000000000001</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5363,10 +5363,10 @@
         <v>-0.039</v>
       </c>
       <c r="I14">
-        <v>-0.712</v>
+        <v>-0.944</v>
       </c>
       <c r="J14">
-        <v>0.478</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5395,10 +5395,10 @@
         <v>-0.103</v>
       </c>
       <c r="I15">
-        <v>-2.253</v>
+        <v>-1.991</v>
       </c>
       <c r="J15">
-        <v>0.026</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5427,10 +5427,10 @@
         <v>-0.054</v>
       </c>
       <c r="I16">
-        <v>-1.065</v>
+        <v>-1.27</v>
       </c>
       <c r="J16">
-        <v>0.289</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5459,10 +5459,10 @@
         <v>0.089</v>
       </c>
       <c r="I17">
-        <v>1.766</v>
+        <v>1.511</v>
       </c>
       <c r="J17">
-        <v>0.08</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5491,10 +5491,10 @@
         <v>-0.078</v>
       </c>
       <c r="I18">
-        <v>-1.403</v>
+        <v>-1.831</v>
       </c>
       <c r="J18">
-        <v>0.164</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5523,10 +5523,10 @@
         <v>-0.015</v>
       </c>
       <c r="I19">
-        <v>-0.274</v>
+        <v>-0.347</v>
       </c>
       <c r="J19">
-        <v>0.784</v>
+        <v>0.729</v>
       </c>
     </row>
   </sheetData>
@@ -5619,10 +5619,10 @@
         <v>-0.757</v>
       </c>
       <c r="J2">
-        <v>-0.107</v>
+        <v>-0.118</v>
       </c>
       <c r="K2">
-        <v>0.915</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5654,10 +5654,10 @@
         <v>1.82</v>
       </c>
       <c r="J3">
-        <v>0.303</v>
+        <v>0.276</v>
       </c>
       <c r="K3">
-        <v>0.763</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5689,10 +5689,10 @@
         <v>14.36</v>
       </c>
       <c r="J4">
-        <v>1.832</v>
+        <v>2.208</v>
       </c>
       <c r="K4">
-        <v>0.07000000000000001</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5724,10 +5724,10 @@
         <v>12.173</v>
       </c>
       <c r="J5">
-        <v>1.298</v>
+        <v>1.252</v>
       </c>
       <c r="K5">
-        <v>0.197</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5759,10 +5759,10 @@
         <v>-2.393</v>
       </c>
       <c r="J6">
-        <v>-0.255</v>
+        <v>-0.266</v>
       </c>
       <c r="K6">
-        <v>0.799</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5794,10 +5794,10 @@
         <v>9.048999999999999</v>
       </c>
       <c r="J7">
-        <v>0.9</v>
+        <v>0.831</v>
       </c>
       <c r="K7">
-        <v>0.37</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5826,13 +5826,13 @@
         <v>0.017</v>
       </c>
       <c r="I8">
-        <v>-1.567</v>
+        <v>-1.553</v>
       </c>
       <c r="J8">
-        <v>-0.5</v>
+        <v>-0.648</v>
       </c>
       <c r="K8">
-        <v>0.618</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5864,10 +5864,10 @@
         <v>-0.299</v>
       </c>
       <c r="J9">
-        <v>-0.104</v>
+        <v>-0.098</v>
       </c>
       <c r="K9">
-        <v>0.917</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5899,10 +5899,10 @@
         <v>-8.117000000000001</v>
       </c>
       <c r="J10">
-        <v>-2.116</v>
+        <v>-2.537</v>
       </c>
       <c r="K10">
-        <v>0.037</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5934,10 +5934,10 @@
         <v>-6.267</v>
       </c>
       <c r="J11">
-        <v>-1.554</v>
+        <v>-1.633</v>
       </c>
       <c r="K11">
-        <v>0.123</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5969,10 +5969,10 @@
         <v>0.255</v>
       </c>
       <c r="J12">
-        <v>0.066</v>
+        <v>0.081</v>
       </c>
       <c r="K12">
-        <v>0.947</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6004,10 +6004,10 @@
         <v>-2.239</v>
       </c>
       <c r="J13">
-        <v>-0.545</v>
+        <v>-0.549</v>
       </c>
       <c r="K13">
-        <v>0.587</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6039,10 +6039,10 @@
         <v>-0.053</v>
       </c>
       <c r="J14">
-        <v>-0.794</v>
+        <v>-1.024</v>
       </c>
       <c r="K14">
-        <v>0.429</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6074,10 +6074,10 @@
         <v>-0.112</v>
       </c>
       <c r="J15">
-        <v>-1.987</v>
+        <v>-2.124</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6109,10 +6109,10 @@
         <v>-0.045</v>
       </c>
       <c r="J16">
-        <v>-0.728</v>
+        <v>-0.763</v>
       </c>
       <c r="K16">
-        <v>0.468</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6144,10 +6144,10 @@
         <v>0.108</v>
       </c>
       <c r="J17">
-        <v>1.746</v>
+        <v>1.636</v>
       </c>
       <c r="K17">
-        <v>0.08400000000000001</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6179,10 +6179,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="J18">
-        <v>-1.052</v>
+        <v>-1.202</v>
       </c>
       <c r="K18">
-        <v>0.295</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6214,10 +6214,10 @@
         <v>-0.011</v>
       </c>
       <c r="J19">
-        <v>-0.159</v>
+        <v>-0.174</v>
       </c>
       <c r="K19">
-        <v>0.874</v>
+        <v>0.862</v>
       </c>
     </row>
   </sheetData>
@@ -6303,10 +6303,10 @@
         <v>-0.163</v>
       </c>
       <c r="I2">
-        <v>-0.038</v>
+        <v>-0.034</v>
       </c>
       <c r="J2">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6335,10 +6335,10 @@
         <v>1.081</v>
       </c>
       <c r="I3">
-        <v>0.333</v>
+        <v>0.411</v>
       </c>
       <c r="J3">
-        <v>0.74</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6367,10 +6367,10 @@
         <v>0.867</v>
       </c>
       <c r="I4">
-        <v>0.178</v>
+        <v>0.198</v>
       </c>
       <c r="J4">
-        <v>0.859</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6399,10 +6399,10 @@
         <v>4.438</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <v>0.577</v>
       </c>
       <c r="J5">
-        <v>0.426</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6431,10 +6431,10 @@
         <v>6.674</v>
       </c>
       <c r="I6">
-        <v>1.251</v>
+        <v>1.272</v>
       </c>
       <c r="J6">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6463,10 +6463,10 @@
         <v>6.181</v>
       </c>
       <c r="I7">
-        <v>1.09</v>
+        <v>1.065</v>
       </c>
       <c r="J7">
-        <v>0.279</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6492,13 +6492,13 @@
         <v>0.057</v>
       </c>
       <c r="H8">
-        <v>-0.152</v>
+        <v>-0.193</v>
       </c>
       <c r="I8">
-        <v>-0.08</v>
+        <v>-0.101</v>
       </c>
       <c r="J8">
-        <v>0.9360000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6527,10 +6527,10 @@
         <v>-0.151</v>
       </c>
       <c r="I9">
-        <v>-0.099</v>
+        <v>-0.106</v>
       </c>
       <c r="J9">
-        <v>0.921</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6559,10 +6559,10 @@
         <v>-0.206</v>
       </c>
       <c r="I10">
-        <v>-0.08599999999999999</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="J10">
-        <v>0.931</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6591,10 +6591,10 @@
         <v>-2.011</v>
       </c>
       <c r="I11">
-        <v>-0.8070000000000001</v>
+        <v>-0.572</v>
       </c>
       <c r="J11">
-        <v>0.422</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6623,10 +6623,10 @@
         <v>-3.482</v>
       </c>
       <c r="I12">
-        <v>-1.572</v>
+        <v>-1.573</v>
       </c>
       <c r="J12">
-        <v>0.12</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6655,10 +6655,10 @@
         <v>-3.203</v>
       </c>
       <c r="I13">
-        <v>-1.348</v>
+        <v>-1.346</v>
       </c>
       <c r="J13">
-        <v>0.182</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6687,10 +6687,10 @@
         <v>0.002</v>
       </c>
       <c r="I14">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="J14">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6719,10 +6719,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-0.618</v>
+        <v>-0.431</v>
       </c>
       <c r="J15">
-        <v>0.538</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6751,10 +6751,10 @@
         <v>-0.05</v>
       </c>
       <c r="I16">
-        <v>-1.266</v>
+        <v>-1.057</v>
       </c>
       <c r="J16">
-        <v>0.209</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6783,10 +6783,10 @@
         <v>0.018</v>
       </c>
       <c r="I17">
-        <v>0.454</v>
+        <v>0.38</v>
       </c>
       <c r="J17">
-        <v>0.651</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6815,10 +6815,10 @@
         <v>-0.064</v>
       </c>
       <c r="I18">
-        <v>-1.5</v>
+        <v>-1.366</v>
       </c>
       <c r="J18">
-        <v>0.138</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6847,10 +6847,10 @@
         <v>-0.021</v>
       </c>
       <c r="I19">
-        <v>-0.473</v>
+        <v>-0.423</v>
       </c>
       <c r="J19">
-        <v>0.638</v>
+        <v>0.672</v>
       </c>
     </row>
   </sheetData>
@@ -6936,10 +6936,10 @@
         <v>1.561</v>
       </c>
       <c r="I2">
-        <v>0.319</v>
+        <v>0.284</v>
       </c>
       <c r="J2">
-        <v>0.751</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6968,10 +6968,10 @@
         <v>-2.626</v>
       </c>
       <c r="I3">
-        <v>-0.705</v>
+        <v>-0.766</v>
       </c>
       <c r="J3">
-        <v>0.483</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7000,10 +7000,10 @@
         <v>-1.816</v>
       </c>
       <c r="I4">
-        <v>-0.324</v>
+        <v>-0.413</v>
       </c>
       <c r="J4">
-        <v>0.747</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7032,10 +7032,10 @@
         <v>6.752</v>
       </c>
       <c r="I5">
-        <v>1.062</v>
+        <v>0.782</v>
       </c>
       <c r="J5">
-        <v>0.292</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7064,10 +7064,10 @@
         <v>13.831</v>
       </c>
       <c r="I6">
-        <v>2.309</v>
+        <v>2.249</v>
       </c>
       <c r="J6">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7096,10 +7096,10 @@
         <v>13.635</v>
       </c>
       <c r="I7">
-        <v>2.136</v>
+        <v>2.548</v>
       </c>
       <c r="J7">
-        <v>0.036</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7125,13 +7125,13 @@
         <v>0.044</v>
       </c>
       <c r="H8">
-        <v>-0.86</v>
+        <v>-0.929</v>
       </c>
       <c r="I8">
-        <v>-0.395</v>
+        <v>-0.374</v>
       </c>
       <c r="J8">
-        <v>0.694</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7160,10 +7160,10 @@
         <v>1.595</v>
       </c>
       <c r="I9">
-        <v>0.918</v>
+        <v>0.87</v>
       </c>
       <c r="J9">
-        <v>0.362</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7192,10 +7192,10 @@
         <v>0.854</v>
       </c>
       <c r="I10">
-        <v>0.311</v>
+        <v>0.381</v>
       </c>
       <c r="J10">
-        <v>0.757</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7224,10 +7224,10 @@
         <v>-2.666</v>
       </c>
       <c r="I11">
-        <v>-0.931</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="J11">
-        <v>0.355</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7256,10 +7256,10 @@
         <v>-6.368</v>
       </c>
       <c r="I12">
-        <v>-2.567</v>
+        <v>-2.727</v>
       </c>
       <c r="J12">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7288,10 +7288,10 @@
         <v>-6.432</v>
       </c>
       <c r="I13">
-        <v>-2.414</v>
+        <v>-3.034</v>
       </c>
       <c r="J13">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7320,10 +7320,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.358</v>
+        <v>-0.388</v>
       </c>
       <c r="J14">
-        <v>0.721</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7352,10 +7352,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>-0.236</v>
+        <v>-0.141</v>
       </c>
       <c r="J15">
-        <v>0.8139999999999999</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7384,10 +7384,10 @@
         <v>-0.064</v>
       </c>
       <c r="I16">
-        <v>-1.407</v>
+        <v>-1.078</v>
       </c>
       <c r="J16">
-        <v>0.164</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7416,10 +7416,10 @@
         <v>0.003</v>
       </c>
       <c r="I17">
-        <v>0.055</v>
+        <v>0.041</v>
       </c>
       <c r="J17">
-        <v>0.956</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7448,10 +7448,10 @@
         <v>-0.031</v>
       </c>
       <c r="I18">
-        <v>-0.632</v>
+        <v>-0.541</v>
       </c>
       <c r="J18">
-        <v>0.529</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7480,10 +7480,10 @@
         <v>0.021</v>
       </c>
       <c r="I19">
-        <v>0.396</v>
+        <v>0.324</v>
       </c>
       <c r="J19">
-        <v>0.6929999999999999</v>
+        <v>0.746</v>
       </c>
     </row>
   </sheetData>
@@ -7576,10 +7576,10 @@
         <v>2.711</v>
       </c>
       <c r="J2">
-        <v>0.473</v>
+        <v>0.41</v>
       </c>
       <c r="K2">
-        <v>0.638</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7611,10 +7611,10 @@
         <v>3.595</v>
       </c>
       <c r="J3">
-        <v>0.825</v>
+        <v>0.851</v>
       </c>
       <c r="K3">
-        <v>0.412</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7646,10 +7646,10 @@
         <v>5.691</v>
       </c>
       <c r="J4">
-        <v>0.87</v>
+        <v>1.108</v>
       </c>
       <c r="K4">
-        <v>0.387</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7681,10 +7681,10 @@
         <v>3.567</v>
       </c>
       <c r="J5">
-        <v>0.476</v>
+        <v>0.434</v>
       </c>
       <c r="K5">
-        <v>0.635</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7716,10 +7716,10 @@
         <v>7.835</v>
       </c>
       <c r="J6">
-        <v>1.087</v>
+        <v>1.11</v>
       </c>
       <c r="K6">
-        <v>0.281</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7751,10 +7751,10 @@
         <v>12.779</v>
       </c>
       <c r="J7">
-        <v>1.69</v>
+        <v>1.704</v>
       </c>
       <c r="K7">
-        <v>0.095</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7783,13 +7783,13 @@
         <v>0.033</v>
       </c>
       <c r="I8">
-        <v>-1.52</v>
+        <v>-1.634</v>
       </c>
       <c r="J8">
-        <v>-0.597</v>
+        <v>-0.608</v>
       </c>
       <c r="K8">
-        <v>0.552</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7821,10 +7821,10 @@
         <v>-0.819</v>
       </c>
       <c r="J9">
-        <v>-0.4</v>
+        <v>-0.392</v>
       </c>
       <c r="K9">
-        <v>0.6899999999999999</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7856,10 +7856,10 @@
         <v>-3.344</v>
       </c>
       <c r="J10">
-        <v>-1.045</v>
+        <v>-1.348</v>
       </c>
       <c r="K10">
-        <v>0.299</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7891,10 +7891,10 @@
         <v>-2.194</v>
       </c>
       <c r="J11">
-        <v>-0.653</v>
+        <v>-0.577</v>
       </c>
       <c r="K11">
-        <v>0.516</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7926,10 +7926,10 @@
         <v>-4.123</v>
       </c>
       <c r="J12">
-        <v>-1.377</v>
+        <v>-1.509</v>
       </c>
       <c r="K12">
-        <v>0.173</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7961,10 +7961,10 @@
         <v>-6.038</v>
       </c>
       <c r="J13">
-        <v>-1.908</v>
+        <v>-2.424</v>
       </c>
       <c r="K13">
-        <v>0.06</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7996,10 +7996,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J14">
-        <v>-0.175</v>
+        <v>-0.207</v>
       </c>
       <c r="K14">
-        <v>0.861</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8031,10 +8031,10 @@
         <v>-0.048</v>
       </c>
       <c r="J15">
-        <v>-1.025</v>
+        <v>-0.64</v>
       </c>
       <c r="K15">
-        <v>0.309</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8066,10 +8066,10 @@
         <v>-0.038</v>
       </c>
       <c r="J16">
-        <v>-0.712</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="K16">
-        <v>0.479</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8101,10 +8101,10 @@
         <v>0.024</v>
       </c>
       <c r="J17">
-        <v>0.436</v>
+        <v>0.339</v>
       </c>
       <c r="K17">
-        <v>0.664</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8136,10 +8136,10 @@
         <v>-0.025</v>
       </c>
       <c r="J18">
-        <v>-0.428</v>
+        <v>-0.415</v>
       </c>
       <c r="K18">
-        <v>0.67</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8171,10 +8171,10 @@
         <v>0.08</v>
       </c>
       <c r="J19">
-        <v>1.322</v>
+        <v>1.427</v>
       </c>
       <c r="K19">
-        <v>0.19</v>
+        <v>0.154</v>
       </c>
     </row>
   </sheetData>
@@ -8274,10 +8274,10 @@
         <v>4.494</v>
       </c>
       <c r="K2">
-        <v>0.663</v>
+        <v>0.638</v>
       </c>
       <c r="L2">
-        <v>0.51</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8312,10 +8312,10 @@
         <v>3.562</v>
       </c>
       <c r="K3">
-        <v>0.6889999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="L3">
-        <v>0.493</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8350,10 +8350,10 @@
         <v>11.49</v>
       </c>
       <c r="K4">
-        <v>1.496</v>
+        <v>1.46</v>
       </c>
       <c r="L4">
-        <v>0.139</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8388,10 +8388,10 @@
         <v>4.473</v>
       </c>
       <c r="K5">
-        <v>0.504</v>
+        <v>0.433</v>
       </c>
       <c r="L5">
-        <v>0.616</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8426,10 +8426,10 @@
         <v>3.336</v>
       </c>
       <c r="K6">
-        <v>0.388</v>
+        <v>0.454</v>
       </c>
       <c r="L6">
-        <v>0.699</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8464,10 +8464,10 @@
         <v>16.908</v>
       </c>
       <c r="K7">
-        <v>1.896</v>
+        <v>1.592</v>
       </c>
       <c r="L7">
-        <v>0.062</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8499,13 +8499,13 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>-2.75</v>
+        <v>-2.91</v>
       </c>
       <c r="K8">
-        <v>-0.914</v>
+        <v>-1.081</v>
       </c>
       <c r="L8">
-        <v>0.364</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8540,10 +8540,10 @@
         <v>-0.713</v>
       </c>
       <c r="K9">
-        <v>-0.294</v>
+        <v>-0.255</v>
       </c>
       <c r="L9">
-        <v>0.77</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8578,10 +8578,10 @@
         <v>-5.842</v>
       </c>
       <c r="K10">
-        <v>-1.554</v>
+        <v>-1.669</v>
       </c>
       <c r="L10">
-        <v>0.124</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8616,10 +8616,10 @@
         <v>-3.178</v>
       </c>
       <c r="K11">
-        <v>-0.799</v>
+        <v>-0.715</v>
       </c>
       <c r="L11">
-        <v>0.427</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8654,10 +8654,10 @@
         <v>-2.509</v>
       </c>
       <c r="K12">
-        <v>-0.7</v>
+        <v>-0.797</v>
       </c>
       <c r="L12">
-        <v>0.486</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8692,10 +8692,10 @@
         <v>-7.632</v>
       </c>
       <c r="K13">
-        <v>-2.042</v>
+        <v>-2.112</v>
       </c>
       <c r="L13">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8730,10 +8730,10 @@
         <v>-0.013</v>
       </c>
       <c r="K14">
-        <v>-0.207</v>
+        <v>-0.233</v>
       </c>
       <c r="L14">
-        <v>0.836</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8768,10 +8768,10 @@
         <v>-0.057</v>
       </c>
       <c r="K15">
-        <v>-1.025</v>
+        <v>-0.792</v>
       </c>
       <c r="L15">
-        <v>0.309</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8806,10 +8806,10 @@
         <v>-0.06</v>
       </c>
       <c r="K16">
-        <v>-0.948</v>
+        <v>-0.73</v>
       </c>
       <c r="L16">
-        <v>0.346</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8844,10 +8844,10 @@
         <v>0.045</v>
       </c>
       <c r="K17">
-        <v>0.697</v>
+        <v>0.57</v>
       </c>
       <c r="L17">
-        <v>0.488</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8920,10 +8920,10 @@
         <v>0.112</v>
       </c>
       <c r="K19">
-        <v>1.573</v>
+        <v>1.494</v>
       </c>
       <c r="L19">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
     </row>
   </sheetData>
@@ -9002,10 +9002,10 @@
         <v>0.964</v>
       </c>
       <c r="H2">
-        <v>0.21</v>
+        <v>0.186</v>
       </c>
       <c r="I2">
-        <v>0.834</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9031,10 +9031,10 @@
         <v>0.602</v>
       </c>
       <c r="H3">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
       <c r="I3">
-        <v>0.895</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9060,10 +9060,10 @@
         <v>-0.956</v>
       </c>
       <c r="H4">
-        <v>-0.18</v>
+        <v>-0.178</v>
       </c>
       <c r="I4">
-        <v>0.857</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9089,10 +9089,10 @@
         <v>1.563</v>
       </c>
       <c r="H5">
-        <v>0.248</v>
+        <v>0.289</v>
       </c>
       <c r="I5">
-        <v>0.805</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9118,10 +9118,10 @@
         <v>7.953</v>
       </c>
       <c r="H6">
-        <v>1.238</v>
+        <v>1.209</v>
       </c>
       <c r="I6">
-        <v>0.218</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9147,10 +9147,10 @@
         <v>-12.606</v>
       </c>
       <c r="H7">
-        <v>-1.923</v>
+        <v>-1.947</v>
       </c>
       <c r="I7">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9173,13 +9173,13 @@
         <v>0.024</v>
       </c>
       <c r="G8">
-        <v>0.329</v>
+        <v>0.434</v>
       </c>
       <c r="H8">
-        <v>0.163</v>
+        <v>0.217</v>
       </c>
       <c r="I8">
-        <v>0.87</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9205,10 +9205,10 @@
         <v>1.281</v>
       </c>
       <c r="H9">
-        <v>0.612</v>
+        <v>0.718</v>
       </c>
       <c r="I9">
-        <v>0.541</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9234,10 +9234,10 @@
         <v>-0.049</v>
       </c>
       <c r="H10">
-        <v>-0.019</v>
+        <v>-0.017</v>
       </c>
       <c r="I10">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9263,10 +9263,10 @@
         <v>-0.731</v>
       </c>
       <c r="H11">
-        <v>-0.279</v>
+        <v>-0.331</v>
       </c>
       <c r="I11">
-        <v>0.781</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9292,10 +9292,10 @@
         <v>-4.156</v>
       </c>
       <c r="H12">
-        <v>-1.608</v>
+        <v>-1.348</v>
       </c>
       <c r="I12">
-        <v>0.11</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9321,10 +9321,10 @@
         <v>5.016</v>
       </c>
       <c r="H13">
-        <v>1.951</v>
+        <v>2.12</v>
       </c>
       <c r="I13">
-        <v>0.053</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9350,10 +9350,10 @@
         <v>-0.059</v>
       </c>
       <c r="H14">
-        <v>-1.435</v>
+        <v>-1.651</v>
       </c>
       <c r="I14">
-        <v>0.153</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9379,7 +9379,7 @@
         <v>-0</v>
       </c>
       <c r="H15">
-        <v>-0.008999999999999999</v>
+        <v>-0.008</v>
       </c>
       <c r="I15">
         <v>0.993</v>
@@ -9408,10 +9408,10 @@
         <v>0.004</v>
       </c>
       <c r="H16">
-        <v>0.109</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I16">
-        <v>0.913</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9437,10 +9437,10 @@
         <v>0.029</v>
       </c>
       <c r="H17">
-        <v>0.677</v>
+        <v>0.731</v>
       </c>
       <c r="I17">
-        <v>0.499</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9466,10 +9466,10 @@
         <v>-0.049</v>
       </c>
       <c r="H18">
-        <v>-1.115</v>
+        <v>-2.449</v>
       </c>
       <c r="I18">
-        <v>0.266</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9495,10 +9495,10 @@
         <v>-0.057</v>
       </c>
       <c r="H19">
-        <v>-1.296</v>
+        <v>-1.339</v>
       </c>
       <c r="I19">
-        <v>0.197</v>
+        <v>0.181</v>
       </c>
     </row>
   </sheetData>
@@ -9577,10 +9577,10 @@
         <v>5.919</v>
       </c>
       <c r="H2">
-        <v>1.037</v>
+        <v>0.896</v>
       </c>
       <c r="I2">
-        <v>0.301</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9606,10 +9606,10 @@
         <v>3.301</v>
       </c>
       <c r="H3">
-        <v>0.579</v>
+        <v>0.539</v>
       </c>
       <c r="I3">
-        <v>0.5629999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9635,10 +9635,10 @@
         <v>6.234</v>
       </c>
       <c r="H4">
-        <v>0.9419999999999999</v>
+        <v>1.119</v>
       </c>
       <c r="I4">
-        <v>0.347</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9664,10 +9664,10 @@
         <v>0.925</v>
       </c>
       <c r="H5">
-        <v>0.117</v>
+        <v>0.131</v>
       </c>
       <c r="I5">
-        <v>0.907</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9693,10 +9693,10 @@
         <v>1.893</v>
       </c>
       <c r="H6">
-        <v>0.235</v>
+        <v>0.226</v>
       </c>
       <c r="I6">
-        <v>0.8149999999999999</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9722,10 +9722,10 @@
         <v>-17.428</v>
       </c>
       <c r="H7">
-        <v>-2.132</v>
+        <v>-2.95</v>
       </c>
       <c r="I7">
-        <v>0.035</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9748,13 +9748,13 @@
         <v>0.016</v>
       </c>
       <c r="G8">
-        <v>-1.506</v>
+        <v>-1.514</v>
       </c>
       <c r="H8">
-        <v>-0.598</v>
+        <v>-0.608</v>
       </c>
       <c r="I8">
-        <v>0.551</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9780,10 +9780,10 @@
         <v>0.429</v>
       </c>
       <c r="H9">
-        <v>0.164</v>
+        <v>0.166</v>
       </c>
       <c r="I9">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9809,10 +9809,10 @@
         <v>-4.002</v>
       </c>
       <c r="H10">
-        <v>-1.247</v>
+        <v>-1.324</v>
       </c>
       <c r="I10">
-        <v>0.214</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9838,10 +9838,10 @@
         <v>-1.092</v>
       </c>
       <c r="H11">
-        <v>-0.333</v>
+        <v>-0.403</v>
       </c>
       <c r="I11">
-        <v>0.739</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9867,10 +9867,10 @@
         <v>-2.492</v>
       </c>
       <c r="H12">
-        <v>-0.766</v>
+        <v>-0.655</v>
       </c>
       <c r="I12">
-        <v>0.445</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9896,10 +9896,10 @@
         <v>7.006</v>
       </c>
       <c r="H13">
-        <v>2.186</v>
+        <v>3.659</v>
       </c>
       <c r="I13">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9925,10 +9925,10 @@
         <v>-0.055</v>
       </c>
       <c r="H14">
-        <v>-1.069</v>
+        <v>-1.363</v>
       </c>
       <c r="I14">
-        <v>0.287</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9954,10 +9954,10 @@
         <v>-0.024</v>
       </c>
       <c r="H15">
-        <v>-0.47</v>
+        <v>-0.486</v>
       </c>
       <c r="I15">
-        <v>0.639</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9983,10 +9983,10 @@
         <v>0.023</v>
       </c>
       <c r="H16">
-        <v>0.449</v>
+        <v>0.431</v>
       </c>
       <c r="I16">
-        <v>0.654</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10012,10 +10012,10 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="H17">
-        <v>1.301</v>
+        <v>1.219</v>
       </c>
       <c r="I17">
-        <v>0.195</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10041,10 +10041,10 @@
         <v>-0.082</v>
       </c>
       <c r="H18">
-        <v>-1.49</v>
+        <v>-2.901</v>
       </c>
       <c r="I18">
-        <v>0.138</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10070,10 +10070,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="H19">
-        <v>-1.288</v>
+        <v>-1.451</v>
       </c>
       <c r="I19">
-        <v>0.2</v>
+        <v>0.147</v>
       </c>
     </row>
   </sheetData>
@@ -10159,10 +10159,10 @@
         <v>9.375999999999999</v>
       </c>
       <c r="I2">
-        <v>1.412</v>
+        <v>1.228</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10191,10 +10191,10 @@
         <v>3.256</v>
       </c>
       <c r="I3">
-        <v>0.489</v>
+        <v>0.475</v>
       </c>
       <c r="J3">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10223,10 +10223,10 @@
         <v>5.056</v>
       </c>
       <c r="I4">
-        <v>0.654</v>
+        <v>0.637</v>
       </c>
       <c r="J4">
-        <v>0.514</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10255,10 +10255,10 @@
         <v>3.301</v>
       </c>
       <c r="I5">
-        <v>0.358</v>
+        <v>0.392</v>
       </c>
       <c r="J5">
-        <v>0.721</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10287,10 +10287,10 @@
         <v>2.283</v>
       </c>
       <c r="I6">
-        <v>0.242</v>
+        <v>0.19</v>
       </c>
       <c r="J6">
-        <v>0.8090000000000001</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10319,10 +10319,10 @@
         <v>-16.59</v>
       </c>
       <c r="I7">
-        <v>-1.73</v>
+        <v>-2.595</v>
       </c>
       <c r="J7">
-        <v>0.08599999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10348,13 +10348,13 @@
         <v>0.011</v>
       </c>
       <c r="H8">
-        <v>-3.993</v>
+        <v>-3.992</v>
       </c>
       <c r="I8">
-        <v>-1.365</v>
+        <v>-1.473</v>
       </c>
       <c r="J8">
-        <v>0.174</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10383,10 +10383,10 @@
         <v>1.24</v>
       </c>
       <c r="I9">
-        <v>0.406</v>
+        <v>0.453</v>
       </c>
       <c r="J9">
-        <v>0.6850000000000001</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10415,10 +10415,10 @@
         <v>-3.258</v>
       </c>
       <c r="I10">
-        <v>-0.867</v>
+        <v>-0.771</v>
       </c>
       <c r="J10">
-        <v>0.387</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10447,10 +10447,10 @@
         <v>-2.477</v>
       </c>
       <c r="I11">
-        <v>-0.648</v>
+        <v>-0.828</v>
       </c>
       <c r="J11">
-        <v>0.518</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10479,10 +10479,10 @@
         <v>-3.151</v>
       </c>
       <c r="I12">
-        <v>-0.83</v>
+        <v>-0.599</v>
       </c>
       <c r="J12">
-        <v>0.407</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10511,10 +10511,10 @@
         <v>7.261</v>
       </c>
       <c r="I13">
-        <v>1.935</v>
+        <v>3.371</v>
       </c>
       <c r="J13">
-        <v>0.055</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10543,10 +10543,10 @@
         <v>-0.051</v>
       </c>
       <c r="I14">
-        <v>-0.857</v>
+        <v>-1.161</v>
       </c>
       <c r="J14">
-        <v>0.393</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10575,10 +10575,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-0.374</v>
+        <v>-0.339</v>
       </c>
       <c r="J15">
-        <v>0.709</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10607,10 +10607,10 @@
         <v>0.022</v>
       </c>
       <c r="I16">
-        <v>0.369</v>
+        <v>0.382</v>
       </c>
       <c r="J16">
-        <v>0.713</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10639,10 +10639,10 @@
         <v>0.083</v>
       </c>
       <c r="I17">
-        <v>1.327</v>
+        <v>1.798</v>
       </c>
       <c r="J17">
-        <v>0.186</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10671,10 +10671,10 @@
         <v>-0.063</v>
       </c>
       <c r="I18">
-        <v>-0.984</v>
+        <v>-1.423</v>
       </c>
       <c r="J18">
-        <v>0.327</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10703,10 +10703,10 @@
         <v>-0.081</v>
       </c>
       <c r="I19">
-        <v>-1.276</v>
+        <v>-1.354</v>
       </c>
       <c r="J19">
-        <v>0.204</v>
+        <v>0.176</v>
       </c>
     </row>
   </sheetData>
@@ -10785,10 +10785,10 @@
         <v>-2.449</v>
       </c>
       <c r="H2">
-        <v>-0.653</v>
+        <v>-0.708</v>
       </c>
       <c r="I2">
-        <v>0.515</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10814,10 +10814,10 @@
         <v>-2.296</v>
       </c>
       <c r="H3">
-        <v>-0.652</v>
+        <v>-0.978</v>
       </c>
       <c r="I3">
-        <v>0.515</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10843,10 +10843,10 @@
         <v>5.169</v>
       </c>
       <c r="H4">
-        <v>1.232</v>
+        <v>1.329</v>
       </c>
       <c r="I4">
-        <v>0.22</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10872,10 +10872,10 @@
         <v>5.163</v>
       </c>
       <c r="H5">
-        <v>1.037</v>
+        <v>0.895</v>
       </c>
       <c r="I5">
-        <v>0.302</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10901,10 +10901,10 @@
         <v>-2.929</v>
       </c>
       <c r="H6">
-        <v>-0.573</v>
+        <v>-0.554</v>
       </c>
       <c r="I6">
-        <v>0.5669999999999999</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10930,10 +10930,10 @@
         <v>-13.876</v>
       </c>
       <c r="H7">
-        <v>-2.584</v>
+        <v>-3.054</v>
       </c>
       <c r="I7">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10956,13 +10956,13 @@
         <v>0.04</v>
       </c>
       <c r="G8">
-        <v>0.672</v>
+        <v>0.769</v>
       </c>
       <c r="H8">
-        <v>0.407</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I8">
-        <v>0.6840000000000001</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10988,10 +10988,10 @@
         <v>1.282</v>
       </c>
       <c r="H9">
-        <v>0.782</v>
+        <v>1.077</v>
       </c>
       <c r="I9">
-        <v>0.436</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11017,10 +11017,10 @@
         <v>-2.667</v>
       </c>
       <c r="H10">
-        <v>-1.3</v>
+        <v>-1.232</v>
       </c>
       <c r="I10">
-        <v>0.196</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11046,10 +11046,10 @@
         <v>-1.882</v>
       </c>
       <c r="H11">
-        <v>-0.876</v>
+        <v>-0.664</v>
       </c>
       <c r="I11">
-        <v>0.383</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11075,10 +11075,10 @@
         <v>1.054</v>
       </c>
       <c r="H12">
-        <v>0.503</v>
+        <v>0.462</v>
       </c>
       <c r="I12">
-        <v>0.616</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11104,10 +11104,10 @@
         <v>6.243</v>
       </c>
       <c r="H13">
-        <v>2.909</v>
+        <v>3.614</v>
       </c>
       <c r="I13">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11133,10 +11133,10 @@
         <v>-0.008</v>
       </c>
       <c r="H14">
-        <v>-0.242</v>
+        <v>-0.246</v>
       </c>
       <c r="I14">
-        <v>0.8090000000000001</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11162,10 +11162,10 @@
         <v>-0.037</v>
       </c>
       <c r="H15">
-        <v>-1.092</v>
+        <v>-1.329</v>
       </c>
       <c r="I15">
-        <v>0.277</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11191,10 +11191,10 @@
         <v>0.016</v>
       </c>
       <c r="H16">
-        <v>0.473</v>
+        <v>0.397</v>
       </c>
       <c r="I16">
-        <v>0.637</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11220,10 +11220,10 @@
         <v>0.027</v>
       </c>
       <c r="H17">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="I17">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11249,10 +11249,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="H18">
-        <v>-1.957</v>
+        <v>-2.417</v>
       </c>
       <c r="I18">
-        <v>0.052</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11278,10 +11278,10 @@
         <v>-0.063</v>
       </c>
       <c r="H19">
-        <v>-1.813</v>
+        <v>-1.77</v>
       </c>
       <c r="I19">
-        <v>0.07199999999999999</v>
+        <v>0.077</v>
       </c>
     </row>
   </sheetData>
@@ -11367,10 +11367,10 @@
         <v>-8.442</v>
       </c>
       <c r="I2">
-        <v>-1.865</v>
+        <v>-1.906</v>
       </c>
       <c r="J2">
-        <v>0.064</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11399,10 +11399,10 @@
         <v>-2.31</v>
       </c>
       <c r="I3">
-        <v>-0.537</v>
+        <v>-0.577</v>
       </c>
       <c r="J3">
-        <v>0.592</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11431,10 +11431,10 @@
         <v>6.698</v>
       </c>
       <c r="I4">
-        <v>1.31</v>
+        <v>1.524</v>
       </c>
       <c r="J4">
-        <v>0.193</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11463,10 +11463,10 @@
         <v>10.143</v>
       </c>
       <c r="I5">
-        <v>1.68</v>
+        <v>1.608</v>
       </c>
       <c r="J5">
-        <v>0.095</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11495,10 +11495,10 @@
         <v>5.493</v>
       </c>
       <c r="I6">
-        <v>0.883</v>
+        <v>1.093</v>
       </c>
       <c r="J6">
-        <v>0.379</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11527,10 +11527,10 @@
         <v>-8.766999999999999</v>
       </c>
       <c r="I7">
-        <v>-1.314</v>
+        <v>-1.718</v>
       </c>
       <c r="J7">
-        <v>0.191</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11556,13 +11556,13 @@
         <v>0.029</v>
       </c>
       <c r="H8">
-        <v>3.272</v>
+        <v>3.391</v>
       </c>
       <c r="I8">
-        <v>1.642</v>
+        <v>1.816</v>
       </c>
       <c r="J8">
-        <v>0.103</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11591,10 +11591,10 @@
         <v>1.206</v>
       </c>
       <c r="I9">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="J9">
-        <v>0.548</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11623,10 +11623,10 @@
         <v>-3.767</v>
       </c>
       <c r="I10">
-        <v>-1.509</v>
+        <v>-1.366</v>
       </c>
       <c r="J10">
-        <v>0.134</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11655,10 +11655,10 @@
         <v>-3.435</v>
       </c>
       <c r="I11">
-        <v>-1.315</v>
+        <v>-1.222</v>
       </c>
       <c r="J11">
-        <v>0.191</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11687,10 +11687,10 @@
         <v>-1.964</v>
       </c>
       <c r="I12">
-        <v>-0.77</v>
+        <v>-0.819</v>
       </c>
       <c r="J12">
-        <v>0.443</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11719,10 +11719,10 @@
         <v>4.412</v>
       </c>
       <c r="I13">
-        <v>1.651</v>
+        <v>2.188</v>
       </c>
       <c r="J13">
-        <v>0.101</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11751,10 +11751,10 @@
         <v>-0.053</v>
       </c>
       <c r="I14">
-        <v>-1.245</v>
+        <v>-1.088</v>
       </c>
       <c r="J14">
-        <v>0.215</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11783,10 +11783,10 @@
         <v>-0.011</v>
       </c>
       <c r="I15">
-        <v>-0.255</v>
+        <v>-0.259</v>
       </c>
       <c r="J15">
-        <v>0.799</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11815,10 +11815,10 @@
         <v>0.004</v>
       </c>
       <c r="I16">
-        <v>0.093</v>
+        <v>0.061</v>
       </c>
       <c r="J16">
-        <v>0.926</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11847,10 +11847,10 @@
         <v>0.019</v>
       </c>
       <c r="I17">
-        <v>0.428</v>
+        <v>0.4</v>
       </c>
       <c r="J17">
-        <v>0.669</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11879,10 +11879,10 @@
         <v>-0.075</v>
       </c>
       <c r="I18">
-        <v>-1.743</v>
+        <v>-2.474</v>
       </c>
       <c r="J18">
-        <v>0.08400000000000001</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11911,10 +11911,10 @@
         <v>-0.061</v>
       </c>
       <c r="I19">
-        <v>-1.428</v>
+        <v>-1.306</v>
       </c>
       <c r="J19">
-        <v>0.156</v>
+        <v>0.192</v>
       </c>
     </row>
   </sheetData>
@@ -12000,10 +12000,10 @@
         <v>-5.386</v>
       </c>
       <c r="I2">
-        <v>-0.951</v>
+        <v>-0.989</v>
       </c>
       <c r="J2">
-        <v>0.343</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12032,10 +12032,10 @@
         <v>2.353</v>
       </c>
       <c r="I3">
-        <v>0.442</v>
+        <v>0.499</v>
       </c>
       <c r="J3">
-        <v>0.659</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12064,10 +12064,10 @@
         <v>17.11</v>
       </c>
       <c r="I4">
-        <v>2.758</v>
+        <v>3.019</v>
       </c>
       <c r="J4">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12096,10 +12096,10 @@
         <v>10.821</v>
       </c>
       <c r="I5">
-        <v>1.443</v>
+        <v>1.583</v>
       </c>
       <c r="J5">
-        <v>0.151</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12128,10 +12128,10 @@
         <v>-1.171</v>
       </c>
       <c r="I6">
-        <v>-0.151</v>
+        <v>-0.216</v>
       </c>
       <c r="J6">
-        <v>0.88</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12160,10 +12160,10 @@
         <v>-14.524</v>
       </c>
       <c r="I7">
-        <v>-1.766</v>
+        <v>-1.863</v>
       </c>
       <c r="J7">
-        <v>0.08</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12189,13 +12189,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>1.963</v>
+        <v>1.96</v>
       </c>
       <c r="I8">
-        <v>0.789</v>
+        <v>0.843</v>
       </c>
       <c r="J8">
-        <v>0.432</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12224,10 +12224,10 @@
         <v>-0.368</v>
       </c>
       <c r="I9">
-        <v>-0.148</v>
+        <v>-0.167</v>
       </c>
       <c r="J9">
-        <v>0.882</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12256,10 +12256,10 @@
         <v>-9.275</v>
       </c>
       <c r="I10">
-        <v>-3.077</v>
+        <v>-2.712</v>
       </c>
       <c r="J10">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12288,10 +12288,10 @@
         <v>-4.539</v>
       </c>
       <c r="I11">
-        <v>-1.404</v>
+        <v>-1.442</v>
       </c>
       <c r="J11">
-        <v>0.163</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12320,10 +12320,10 @@
         <v>0.512</v>
       </c>
       <c r="I12">
-        <v>0.162</v>
+        <v>0.21</v>
       </c>
       <c r="J12">
-        <v>0.872</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12352,10 +12352,10 @@
         <v>6.869</v>
       </c>
       <c r="I13">
-        <v>2.086</v>
+        <v>2.549</v>
       </c>
       <c r="J13">
-        <v>0.039</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12384,10 +12384,10 @@
         <v>-0.064</v>
       </c>
       <c r="I14">
-        <v>-1.226</v>
+        <v>-1.043</v>
       </c>
       <c r="J14">
-        <v>0.222</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12416,10 +12416,10 @@
         <v>-0.048</v>
       </c>
       <c r="I15">
-        <v>-0.945</v>
+        <v>-1.032</v>
       </c>
       <c r="J15">
-        <v>0.346</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12448,10 +12448,10 @@
         <v>0.049</v>
       </c>
       <c r="I16">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="J16">
-        <v>0.334</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12480,10 +12480,10 @@
         <v>0.077</v>
       </c>
       <c r="I17">
-        <v>1.435</v>
+        <v>1.246</v>
       </c>
       <c r="J17">
-        <v>0.154</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12512,10 +12512,10 @@
         <v>-0.077</v>
       </c>
       <c r="I18">
-        <v>-1.439</v>
+        <v>-2.155</v>
       </c>
       <c r="J18">
-        <v>0.152</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12544,10 +12544,10 @@
         <v>-0.048</v>
       </c>
       <c r="I19">
-        <v>-0.897</v>
+        <v>-0.694</v>
       </c>
       <c r="J19">
-        <v>0.371</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
@@ -12633,10 +12633,10 @@
         <v>-1.16</v>
       </c>
       <c r="I2">
-        <v>-0.181</v>
+        <v>-0.198</v>
       </c>
       <c r="J2">
-        <v>0.857</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12665,10 +12665,10 @@
         <v>-2.255</v>
       </c>
       <c r="I3">
-        <v>-0.375</v>
+        <v>-0.359</v>
       </c>
       <c r="J3">
-        <v>0.708</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12697,10 +12697,10 @@
         <v>16.887</v>
       </c>
       <c r="I4">
-        <v>2.397</v>
+        <v>2.692</v>
       </c>
       <c r="J4">
-        <v>0.018</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12729,10 +12729,10 @@
         <v>13.539</v>
       </c>
       <c r="I5">
-        <v>1.603</v>
+        <v>1.721</v>
       </c>
       <c r="J5">
-        <v>0.111</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12761,10 +12761,10 @@
         <v>1.55</v>
       </c>
       <c r="I6">
-        <v>0.178</v>
+        <v>0.21</v>
       </c>
       <c r="J6">
-        <v>0.859</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12793,10 +12793,10 @@
         <v>-6.91</v>
       </c>
       <c r="I7">
-        <v>-0.738</v>
+        <v>-0.806</v>
       </c>
       <c r="J7">
-        <v>0.462</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12822,13 +12822,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-1.148</v>
+        <v>-1.119</v>
       </c>
       <c r="I8">
-        <v>-0.408</v>
+        <v>-0.489</v>
       </c>
       <c r="J8">
-        <v>0.6840000000000001</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12857,10 +12857,10 @@
         <v>1.513</v>
       </c>
       <c r="I9">
-        <v>0.541</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J9">
-        <v>0.589</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12889,10 +12889,10 @@
         <v>-9.036</v>
       </c>
       <c r="I10">
-        <v>-2.634</v>
+        <v>-2.358</v>
       </c>
       <c r="J10">
-        <v>0.008999999999999999</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12921,10 +12921,10 @@
         <v>-6.096</v>
       </c>
       <c r="I11">
-        <v>-1.677</v>
+        <v>-1.953</v>
       </c>
       <c r="J11">
-        <v>0.096</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12953,10 +12953,10 @@
         <v>-1.169</v>
       </c>
       <c r="I12">
-        <v>-0.327</v>
+        <v>-0.408</v>
       </c>
       <c r="J12">
-        <v>0.744</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12985,10 +12985,10 @@
         <v>4.704</v>
       </c>
       <c r="I13">
-        <v>1.254</v>
+        <v>1.514</v>
       </c>
       <c r="J13">
-        <v>0.212</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13017,10 +13017,10 @@
         <v>-0.081</v>
       </c>
       <c r="I14">
-        <v>-1.373</v>
+        <v>-1.282</v>
       </c>
       <c r="J14">
-        <v>0.172</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13049,10 +13049,10 @@
         <v>-0.062</v>
       </c>
       <c r="I15">
-        <v>-1.073</v>
+        <v>-1.082</v>
       </c>
       <c r="J15">
-        <v>0.285</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13081,10 +13081,10 @@
         <v>0.056</v>
       </c>
       <c r="I16">
-        <v>0.985</v>
+        <v>0.872</v>
       </c>
       <c r="J16">
-        <v>0.327</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13113,10 +13113,10 @@
         <v>0.078</v>
       </c>
       <c r="I17">
-        <v>1.283</v>
+        <v>1.164</v>
       </c>
       <c r="J17">
-        <v>0.202</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13145,10 +13145,10 @@
         <v>-0.051</v>
       </c>
       <c r="I18">
-        <v>-0.846</v>
+        <v>-0.929</v>
       </c>
       <c r="J18">
-        <v>0.399</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13177,10 +13177,10 @@
         <v>-0.037</v>
       </c>
       <c r="I19">
-        <v>-0.614</v>
+        <v>-0.533</v>
       </c>
       <c r="J19">
-        <v>0.54</v>
+        <v>0.594</v>
       </c>
     </row>
   </sheetData>
@@ -13259,10 +13259,10 @@
         <v>-2.424</v>
       </c>
       <c r="H2">
-        <v>-0.62</v>
+        <v>-0.604</v>
       </c>
       <c r="I2">
-        <v>0.537</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13288,10 +13288,10 @@
         <v>1.747</v>
       </c>
       <c r="H3">
-        <v>0.525</v>
+        <v>0.647</v>
       </c>
       <c r="I3">
-        <v>0.601</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13317,10 +13317,10 @@
         <v>1.591</v>
       </c>
       <c r="H4">
-        <v>0.361</v>
+        <v>0.334</v>
       </c>
       <c r="I4">
-        <v>0.719</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13346,10 +13346,10 @@
         <v>4.068</v>
       </c>
       <c r="H5">
-        <v>0.78</v>
+        <v>0.725</v>
       </c>
       <c r="I5">
-        <v>0.437</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13375,10 +13375,10 @@
         <v>0.765</v>
       </c>
       <c r="H6">
-        <v>0.147</v>
+        <v>0.128</v>
       </c>
       <c r="I6">
-        <v>0.883</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13404,10 +13404,10 @@
         <v>-2.084</v>
       </c>
       <c r="H7">
-        <v>-0.373</v>
+        <v>-0.327</v>
       </c>
       <c r="I7">
-        <v>0.71</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13430,13 +13430,13 @@
         <v>0.048</v>
       </c>
       <c r="G8">
-        <v>0.594</v>
+        <v>0.679</v>
       </c>
       <c r="H8">
-        <v>0.342</v>
+        <v>0.418</v>
       </c>
       <c r="I8">
-        <v>0.733</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13462,10 +13462,10 @@
         <v>-0.601</v>
       </c>
       <c r="H9">
-        <v>-0.378</v>
+        <v>-0.481</v>
       </c>
       <c r="I9">
-        <v>0.706</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13491,10 +13491,10 @@
         <v>-1.142</v>
       </c>
       <c r="H10">
-        <v>-0.527</v>
+        <v>-0.483</v>
       </c>
       <c r="I10">
-        <v>0.599</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13520,10 +13520,10 @@
         <v>-1.72</v>
       </c>
       <c r="H11">
-        <v>-0.764</v>
+        <v>-0.621</v>
       </c>
       <c r="I11">
-        <v>0.447</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13549,10 +13549,10 @@
         <v>-0.734</v>
       </c>
       <c r="H12">
-        <v>-0.346</v>
+        <v>-0.293</v>
       </c>
       <c r="I12">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13578,10 +13578,10 @@
         <v>1.217</v>
       </c>
       <c r="H13">
-        <v>0.535</v>
+        <v>0.445</v>
       </c>
       <c r="I13">
-        <v>0.594</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13607,10 +13607,10 @@
         <v>-0.032</v>
       </c>
       <c r="H14">
-        <v>-0.859</v>
+        <v>-1.056</v>
       </c>
       <c r="I14">
-        <v>0.392</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13636,10 +13636,10 @@
         <v>-0.054</v>
       </c>
       <c r="H15">
-        <v>-1.739</v>
+        <v>-2.097</v>
       </c>
       <c r="I15">
-        <v>0.08500000000000001</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13665,10 +13665,10 @@
         <v>-0.022</v>
       </c>
       <c r="H16">
-        <v>-0.641</v>
+        <v>-0.647</v>
       </c>
       <c r="I16">
-        <v>0.523</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13694,10 +13694,10 @@
         <v>0.037</v>
       </c>
       <c r="H17">
-        <v>1.066</v>
+        <v>0.956</v>
       </c>
       <c r="I17">
-        <v>0.289</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13723,10 +13723,10 @@
         <v>-0.083</v>
       </c>
       <c r="H18">
-        <v>-2.211</v>
+        <v>-2.52</v>
       </c>
       <c r="I18">
-        <v>0.029</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13752,10 +13752,10 @@
         <v>-0.048</v>
       </c>
       <c r="H19">
-        <v>-1.282</v>
+        <v>-1.421</v>
       </c>
       <c r="I19">
-        <v>0.203</v>
+        <v>0.155</v>
       </c>
     </row>
   </sheetData>
